--- a/data/trans_dic/P04D$individual-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P04D$individual-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>22,14; 29,01</t>
+          <t>21,92; 28,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>22,87; 29,57</t>
+          <t>23,0; 29,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,49; 20,2</t>
+          <t>12,66; 20,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>22,28; 28,69</t>
+          <t>22,35; 29,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>22,01; 28,63</t>
+          <t>22,11; 28,87</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,67; 17,55</t>
+          <t>11,57; 17,53</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>23,05; 27,68</t>
+          <t>23,1; 27,75</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>23,0; 28,03</t>
+          <t>23,29; 27,89</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,04; 17,87</t>
+          <t>13,1; 17,73</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>24,65; 30,41</t>
+          <t>24,46; 30,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>24,46; 30,07</t>
+          <t>24,25; 30,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19,12; 65,79</t>
+          <t>19,37; 65,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>22,72; 28,28</t>
+          <t>22,61; 28,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,19; 31,81</t>
+          <t>25,8; 31,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>13,45; 17,51</t>
+          <t>13,62; 17,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>24,6; 28,65</t>
+          <t>24,26; 28,47</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>25,98; 30,12</t>
+          <t>25,85; 30,06</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,24; 53,77</t>
+          <t>17,38; 50,36</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>21,48; 28,22</t>
+          <t>21,51; 28,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>30,99; 38,07</t>
+          <t>30,92; 38,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,61; 12,8</t>
+          <t>7,9; 12,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>19,04; 25,36</t>
+          <t>18,93; 25,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>33,85; 41,03</t>
+          <t>33,97; 41,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,98; 9,78</t>
+          <t>3,48; 9,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>21,19; 25,59</t>
+          <t>21,32; 25,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>33,71; 38,83</t>
+          <t>33,71; 38,71</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,66; 10,25</t>
+          <t>5,42; 10,15</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>36,1; 42,44</t>
+          <t>36,16; 42,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>23,93; 29,85</t>
+          <t>23,86; 29,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>21,06; 27,33</t>
+          <t>21,19; 27,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>34,85; 41,07</t>
+          <t>34,76; 40,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,49; 34,53</t>
+          <t>28,68; 34,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,15; 25,44</t>
+          <t>17,37; 25,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>36,31; 40,58</t>
+          <t>36,15; 40,78</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>27,33; 31,57</t>
+          <t>27,28; 31,41</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>20,78; 25,49</t>
+          <t>20,82; 25,44</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>28,16; 31,38</t>
+          <t>28,3; 31,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>26,99; 30,25</t>
+          <t>26,91; 30,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>17,77; 40,99</t>
+          <t>17,81; 42,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>26,77; 29,71</t>
+          <t>26,82; 29,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>29,4; 32,68</t>
+          <t>29,27; 32,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,85; 16,89</t>
+          <t>12,5; 16,91</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>27,96; 30,2</t>
+          <t>27,9; 30,17</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>28,61; 30,87</t>
+          <t>28,57; 30,91</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>16,27; 29,42</t>
+          <t>16,37; 30,53</t>
         </is>
       </c>
     </row>
@@ -1190,4 +1191,963 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menos, tiene calefacción individual en su vivienda</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>177003</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>176089</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>99928</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>176780</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>169391</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>108142</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>353783</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>345480</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>208070</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>153601; 201010</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>155197; 199968</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>80203; 127587</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>155522; 201816</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>148733; 194224</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>83873; 127056</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>322679; 387570</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>313849; 375818</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>177919; 240768</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>496</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>539</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>394</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>278368</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>278706</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>436687</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>261822</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>300670</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>147464</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>540191</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>579376</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>584152</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>248174; 307775</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>247951; 308210</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>230887; 783289</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>232940; 290533</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>269113; 330110</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>130276; 171443</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>496008; 582038</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>533821; 620801</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>373304; 1081866</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>510</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>188709</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>263326</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>70294</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>169919</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>294747</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>65178</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>358627</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>558073</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>135471</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>162753; 214770</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>234856; 292119</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>55569; 88305</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>146909; 195621</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>266693; 322978</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>32399; 90968</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>326737; 394675</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>520640; 597877</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>88593; 165883</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>379</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>363</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>733</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>552</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>592</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>372304</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>251226</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>222798</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>397366</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>330151</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>247155</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>769670</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>581377</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>469953</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>342730; 407218</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>223718; 276573</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>195928; 252918</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>365611; 429211</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>299351; 363135</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>189689; 276973</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>722913; 815400</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>540562; 622363</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>419913; 512956</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>951</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>916</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>573</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>942</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1016</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>862</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1893</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1932</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1435</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1016385</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>969347</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>829707</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1005887</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1094959</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>567939</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>2022272</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>2064306</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1397646</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>967788; 1074169</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>913455; 1025358</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>615159; 1480020</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>953284; 1065229</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1037651; 1155967</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>462986; 626384</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1946023; 2104058</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1982149; 2144756</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1172093; 2185682</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>